--- a/luban/卡牌表_交通流.xlsx
+++ b/luban/卡牌表_交通流.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="494" activeTab="3"/>
+    <workbookView windowWidth="18345" windowHeight="7215" tabRatio="494" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Card01" sheetId="4" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -242,10 +242,16 @@
     <t>事件牌</t>
   </si>
   <si>
+    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费20信仰，转化目的地50的信徒</t>
+  </si>
+  <si>
+    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费100信仰，目的地每有1w市民获得1信仰</t>
+  </si>
+  <si>
     <t>旅游航线</t>
   </si>
   <si>
-    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是双向同行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
+    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费50信仰，减少当地1%的人口</t>
   </si>
   <si>
     <t>奇怪的是，人们怀揣着期盼的心情踏上旅途，却从来无法抵达梦中的远方。</t>
@@ -254,7 +260,7 @@
     <t>物流航线</t>
   </si>
   <si>
-    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是双向同行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
+    <t>花费200信仰，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机起飞花费300信仰，目的地每有1w市民，降低0.1理智</t>
   </si>
   <si>
     <t>没人知道货舱里放的是什么，只能看到舱门里涌出的一股股若有若无充满恶意的气息。</t>
@@ -284,7 +290,7 @@
     <t>特价机票</t>
   </si>
   <si>
-    <t>立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
+    <t>花费100信仰，立刻从当前城市向所有设立航线的城市各发送100名信徒</t>
   </si>
   <si>
     <t>让我们默念伟大存在的名讳，将它的圣迹传遍四方！</t>
@@ -306,6 +312,39 @@
   </si>
   <si>
     <t>停止航线不是为了规避风险，而是为了更好的发展。</t>
+  </si>
+  <si>
+    <t>航空管制</t>
+  </si>
+  <si>
+    <t>场地垃圾教条牌</t>
+  </si>
+  <si>
+    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次，判定成功直接生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场），放置有该卡牌的城市所有航线清空且不可设立新航线</t>
+  </si>
+  <si>
+    <t>警戒航线</t>
+  </si>
+  <si>
+    <t>手牌垃圾事件牌</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线，在两个有机场的城市之间设立航线，航线是单向通行的，每次飞机落地减少目的地5%的信徒</t>
+  </si>
+  <si>
+    <t>强化审查</t>
+  </si>
+  <si>
+    <t>全图航线总数每有1条，增加3%的发生概率，每30-45s判定一次，判定成功下次抽卡时所有卡替换成强化审查，使用后所有航线运行间隔增加8%</t>
+  </si>
+  <si>
+    <t>食梦貘的头</t>
+  </si>
+  <si>
+    <t>遗物牌</t>
+  </si>
+  <si>
+    <t>每次抽牌有0.8%的几率抽到，每条航线增加0.02%的几率，手牌中持有该牌时所有航班起飞间隔缩短15%</t>
   </si>
 </sst>
 </file>
@@ -965,15 +1004,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1315,147 +1357,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:11">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>500</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1486,148 +1528,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>200</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>-20</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>50</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1658,148 +1700,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:12">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>200</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>-100</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1813,190 +1855,246 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="65.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="51.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:5">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" ht="27" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>54</v>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>57</v>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>60</v>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:4">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:4">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
